--- a/基金/基金定投/收益率公式.xlsx
+++ b/基金/基金定投/收益率公式.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\blogs\基金\基金定投\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85754A9-612F-48C8-AC9D-2A8E782E16F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E63645E-1A04-49BA-B1C3-830215F0FB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,6 +303,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -315,31 +339,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,26 +636,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="7"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -826,36 +826,36 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1254,7 +1254,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1262,328 +1262,328 @@
     <col min="1" max="14" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="20"/>
+      <c r="D2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="E2" s="20"/>
+      <c r="G2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="H2" s="20"/>
+      <c r="J2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:14" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:14" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="9">
         <v>150000</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="9">
         <v>20000</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="12">
         <v>0.13</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="12">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="12">
         <v>0.1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="9">
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="9">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="14">
         <f>(1+K3)^12-1</f>
         <v>0.12682503013196977</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="9">
         <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="9">
         <v>50000</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="9">
         <v>1000000</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="12">
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="13">
         <f>(1+B4)^B5*B3</f>
         <v>2617410.3403329668</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="14">
         <f>(1+(E5-E3)/E3)^(1/E4)-1</f>
         <v>0.16499305075071291</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="13">
         <f>H5/((1+H3)^H4)</f>
         <v>294588.34812612552</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="14">
         <f>(1+K5)^(1/12)-1</f>
         <v>1.171491691985338E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:14" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="7" spans="1:14" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="B9" s="20"/>
+      <c r="D9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="G9" s="13" t="s">
+      <c r="E9" s="20"/>
+      <c r="G9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="J9" s="13" t="s">
+      <c r="H9" s="20"/>
+      <c r="J9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="M9" s="13" t="s">
+      <c r="K9" s="20"/>
+      <c r="M9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" spans="1:14" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="9">
         <v>50000</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="9">
         <v>30000</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="9">
         <v>1000000</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="10">
         <v>0.06</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="9">
         <v>1500000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="10">
         <v>0.08</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="9">
         <v>600000</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="10">
         <v>0.12</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="9">
         <v>1000000</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="10">
         <v>0.13</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="9">
         <v>300000</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="9">
         <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="9">
         <v>10000000</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="9">
         <v>24000</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="9">
         <v>120000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="9">
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="9">
         <v>10000</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="9">
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="9">
         <v>20</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="11">
         <f>-PMT(B11,B13,-B10,B12,0)</f>
         <v>13257.372174268854</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="14">
         <f>RATE(E12,-E13,-E10,E11,0)</f>
         <v>8.0332396095241398E-2</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="15">
         <f>NPER(H11,-H13,-H10,H12,0)</f>
         <v>20.317760563059803</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="11">
         <f>-PV(K10,K13,-K12,K11,0)</f>
         <v>36526.617640517958</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="11">
         <f>FV(N11,N13,-N12,-N10,0)</f>
         <v>26998251.122214265</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="12" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="11">
         <f>B14/12</f>
         <v>1104.7810145224046</v>
       </c>
